--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220418_110024.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220418_110024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="250">
   <si>
     <t>날짜</t>
   </si>
@@ -505,259 +505,151 @@
     <t>베이식 (Basick)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 봄여름가을겨울 (Still Life) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LOVE DIVE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I NEVER DIE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ‘The ReVe Festival 2022 - Feel My Rhythm’ </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑인가 봐 (사내맞선 OST 스페셜 트랙) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GANADARA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 취중고백 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 듣고 싶을까 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INVU - The 3rd Album </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LOVE me </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 조각집 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ˣ‿ˣ (SMiLEY) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 다정히 내 이름을 부르면 (경서예지 x 전건호) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ELEVEN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 신호등 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> STAY </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 신사와 아가씨 OST Part.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> abcdefu </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 눈이 오잖아(Feat.헤이즈) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YOUNG-LUV.COM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 쇼미더머니 10 Episode 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 너의 번호를 누르고 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Glitch Mode - The 2nd Album </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IU 5th Album 'LILAC' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 쇼미더머니 10 Episode 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Real Love </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MSG워너비 1집 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Next Level </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> strawberry moon </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 너를 생각해 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Weekend </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스물다섯 스물하나 OST Part 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 조영수 리메이크 프로젝트 Part.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 내일은 미스터트롯 우승자 특전곡 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 호랑수월가 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Love poem </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '키스 먼저 할까요?' OST Part.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Darl+ing </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IM HERO </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 항해 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Butter </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 세 번째 '고백' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 봄 사랑 벚꽃 말고 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Counting Stars </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Step Back </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 별빛 같은 나의 사랑아 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dynamite (DayTime Version) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 버스커 버스커 1집 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑의 콜센타 PART56 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> That's Hilarious </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bipolar </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스물다섯 스물하나 OST Part 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HERO </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 그 해 우리는 OST Part.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 별에서 온 그대 (SBS 수목드라마) OST - Part.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Goodbye, grief. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 밤편지 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑의 콜센타 PART62 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Red Moon : Beyond The Light </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dreams Come True - SM STATION </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑의 콜센타 PART61 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 취기를 빌려 (취향저격 그녀 X 산들) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 별거 없던 그 하루로 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 밤하늘의 별을 (2020) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DAYDREAM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사계 (Four Seasons) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 뽕숭아학당 PART23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Savage - The 1st Mini Album </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HAPPEN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 아무래도 난 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dear OHMYGIRL </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OHAYO MY NIGHT </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 늦은 밤 너의 집 앞 골목길에서 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NEXT EPISODE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stronger (Deluxe Version) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 멜로가 체질 OST Part 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Butter / Permission to Dance </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 추억은 만남보다 이별에 남아 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Speak Your Mind  (Deluxe) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 내가 아니라도 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 흰눈 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 최고의 사랑 OST - Part.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 비가 오는 날엔 (2021) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Can't Control Myself </t>
+    <t>I NEVER DIE</t>
+  </si>
+  <si>
+    <t>‘The ReVe Festival 2022 - Feel My Rhythm’</t>
+  </si>
+  <si>
+    <t>사랑인가 봐 (사내맞선 OST 스페셜 트랙)</t>
+  </si>
+  <si>
+    <t>GANADARA</t>
+  </si>
+  <si>
+    <t>INVU - The 3rd Album</t>
+  </si>
+  <si>
+    <t>조각집</t>
+  </si>
+  <si>
+    <t>ˣ‿ˣ (SMiLEY)</t>
+  </si>
+  <si>
+    <t>다정히 내 이름을 부르면 (경서예지 x 전건호)</t>
+  </si>
+  <si>
+    <t>STAY</t>
+  </si>
+  <si>
+    <t>신사와 아가씨 OST Part.2</t>
+  </si>
+  <si>
+    <t>abcdefu</t>
+  </si>
+  <si>
+    <t>YOUNG-LUV.COM</t>
+  </si>
+  <si>
+    <t>쇼미더머니 10 Episode 2</t>
+  </si>
+  <si>
+    <t>Glitch Mode - The 2nd Album</t>
+  </si>
+  <si>
+    <t>IU 5th Album 'LILAC'</t>
+  </si>
+  <si>
+    <t>쇼미더머니 10 Episode 3</t>
+  </si>
+  <si>
+    <t>MSG워너비 1집</t>
+  </si>
+  <si>
+    <t>스물다섯 스물하나 OST Part 4</t>
+  </si>
+  <si>
+    <t>조영수 리메이크 프로젝트 Part.2</t>
+  </si>
+  <si>
+    <t>내일은 미스터트롯 우승자 특전곡</t>
+  </si>
+  <si>
+    <t>'키스 먼저 할까요?' OST Part.3</t>
+  </si>
+  <si>
+    <t>IM HERO</t>
+  </si>
+  <si>
+    <t>항해</t>
+  </si>
+  <si>
+    <t>세 번째 '고백'</t>
+  </si>
+  <si>
+    <t>Counting Stars</t>
+  </si>
+  <si>
+    <t>Dynamite (DayTime Version)</t>
+  </si>
+  <si>
+    <t>버스커 버스커 1집</t>
+  </si>
+  <si>
+    <t>사랑의 콜센타 PART56</t>
+  </si>
+  <si>
+    <t>That's Hilarious</t>
+  </si>
+  <si>
+    <t>Bipolar</t>
+  </si>
+  <si>
+    <t>스물다섯 스물하나 OST Part 1</t>
+  </si>
+  <si>
+    <t>그 해 우리는 OST Part.2</t>
+  </si>
+  <si>
+    <t>별에서 온 그대 (SBS 수목드라마) OST - Part.7</t>
+  </si>
+  <si>
+    <t>Goodbye, grief.</t>
+  </si>
+  <si>
+    <t>사랑의 콜센타 PART62</t>
+  </si>
+  <si>
+    <t>Red Moon : Beyond The Light</t>
+  </si>
+  <si>
+    <t>Dreams Come True - SM STATION</t>
+  </si>
+  <si>
+    <t>사랑의 콜센타 PART61</t>
+  </si>
+  <si>
+    <t>별거 없던 그 하루로</t>
+  </si>
+  <si>
+    <t>뽕숭아학당 PART23</t>
+  </si>
+  <si>
+    <t>Savage - The 1st Mini Album</t>
+  </si>
+  <si>
+    <t>HAPPEN</t>
+  </si>
+  <si>
+    <t>Dear OHMYGIRL</t>
+  </si>
+  <si>
+    <t>NEXT EPISODE</t>
+  </si>
+  <si>
+    <t>Stronger (Deluxe Version)</t>
+  </si>
+  <si>
+    <t>멜로가 체질 OST Part 3</t>
+  </si>
+  <si>
+    <t>Butter / Permission to Dance</t>
+  </si>
+  <si>
+    <t>Speak Your Mind  (Deluxe)</t>
+  </si>
+  <si>
+    <t>최고의 사랑 OST - Part.4</t>
   </si>
   <si>
     <t>YG</t>
@@ -1272,13 +1164,13 @@
         <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="G2" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1295,13 +1187,13 @@
         <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="G3" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1318,13 +1210,13 @@
         <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="G4" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1341,13 +1233,13 @@
         <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G5" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1364,13 +1256,13 @@
         <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="G6" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1387,13 +1279,13 @@
         <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F7" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="G7" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1410,13 +1302,13 @@
         <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="G8" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1433,13 +1325,13 @@
         <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="G9" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1456,13 +1348,13 @@
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F10" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G10" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1479,13 +1371,13 @@
         <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="G11" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1502,13 +1394,13 @@
         <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F12" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="G12" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1525,13 +1417,13 @@
         <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F13" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="G13" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1548,13 +1440,13 @@
         <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="G14" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1571,13 +1463,13 @@
         <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="G15" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1594,13 +1486,13 @@
         <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="G16" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1617,13 +1509,13 @@
         <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F17" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="G17" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1640,13 +1532,13 @@
         <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="G18" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1663,13 +1555,13 @@
         <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F19" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="G19" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1686,13 +1578,13 @@
         <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="G20" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1709,13 +1601,13 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F21" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="G21" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1732,13 +1624,13 @@
         <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F22" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="G22" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1755,13 +1647,13 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1778,13 +1670,13 @@
         <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F24" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1801,13 +1693,13 @@
         <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F25" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1824,13 +1716,13 @@
         <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F26" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="G26" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1847,13 +1739,13 @@
         <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="G27" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1870,13 +1762,13 @@
         <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F28" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="G28" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1893,13 +1785,13 @@
         <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G29" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1916,13 +1808,13 @@
         <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="G30" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1939,13 +1831,13 @@
         <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F31" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="G31" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1962,13 +1854,13 @@
         <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="G32" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1985,13 +1877,13 @@
         <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G33" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2008,13 +1900,13 @@
         <v>132</v>
       </c>
       <c r="E34" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="F34" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="G34" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2031,13 +1923,13 @@
         <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="F35" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="G35" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2054,13 +1946,13 @@
         <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F36" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="G36" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2077,13 +1969,13 @@
         <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="G37" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2100,13 +1992,13 @@
         <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="F38" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="G38" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2123,13 +2015,13 @@
         <v>135</v>
       </c>
       <c r="E39" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F39" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="G39" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2146,13 +2038,13 @@
         <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="G40" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2169,13 +2061,13 @@
         <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F41" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="G41" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2192,13 +2084,13 @@
         <v>137</v>
       </c>
       <c r="E42" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="F42" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="G42" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2215,13 +2107,13 @@
         <v>138</v>
       </c>
       <c r="E43" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="G43" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2238,13 +2130,13 @@
         <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="F44" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="G44" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2261,13 +2153,13 @@
         <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F45" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="G45" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2284,13 +2176,13 @@
         <v>118</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="G46" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2307,13 +2199,13 @@
         <v>117</v>
       </c>
       <c r="E47" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="F47" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="G47" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2330,13 +2222,13 @@
         <v>139</v>
       </c>
       <c r="E48" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="F48" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G48" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2353,13 +2245,13 @@
         <v>123</v>
       </c>
       <c r="E49" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="G49" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2376,13 +2268,13 @@
         <v>128</v>
       </c>
       <c r="E50" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F50" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G50" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2399,13 +2291,13 @@
         <v>138</v>
       </c>
       <c r="E51" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="F51" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="G51" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2422,13 +2314,13 @@
         <v>118</v>
       </c>
       <c r="E52" t="s">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="F52" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="G52" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2445,13 +2337,13 @@
         <v>140</v>
       </c>
       <c r="E53" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F53" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="G53" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2468,13 +2360,13 @@
         <v>123</v>
       </c>
       <c r="E54" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F54" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="G54" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2490,14 +2382,14 @@
       <c r="D55" t="s">
         <v>141</v>
       </c>
-      <c r="E55" t="s">
-        <v>212</v>
+      <c r="E55">
+        <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="G55" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2514,13 +2406,13 @@
         <v>142</v>
       </c>
       <c r="E56" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="F56" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="G56" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2537,13 +2429,13 @@
         <v>117</v>
       </c>
       <c r="E57" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="F57" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="G57" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2560,13 +2452,13 @@
         <v>143</v>
       </c>
       <c r="E58" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="F58" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G58" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2583,13 +2475,13 @@
         <v>123</v>
       </c>
       <c r="E59" t="s">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="F59" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="G59" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2606,13 +2498,13 @@
         <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="F60" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="G60" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2629,13 +2521,13 @@
         <v>145</v>
       </c>
       <c r="E61" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="F61" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="G61" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2652,13 +2544,13 @@
         <v>146</v>
       </c>
       <c r="E62" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="F62" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="G62" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2675,13 +2567,13 @@
         <v>147</v>
       </c>
       <c r="E63" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="G63" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2698,13 +2590,13 @@
         <v>118</v>
       </c>
       <c r="E64" t="s">
+        <v>70</v>
+      </c>
+      <c r="F64" t="s">
         <v>220</v>
       </c>
-      <c r="F64" t="s">
-        <v>256</v>
-      </c>
       <c r="G64" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2721,13 +2613,13 @@
         <v>123</v>
       </c>
       <c r="E65" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="F65" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="G65" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2744,13 +2636,13 @@
         <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="F66" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="G66" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2767,13 +2659,13 @@
         <v>128</v>
       </c>
       <c r="E67" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F67" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G67" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2790,13 +2682,13 @@
         <v>130</v>
       </c>
       <c r="E68" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="F68" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G68" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2813,13 +2705,13 @@
         <v>123</v>
       </c>
       <c r="E69" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="F69" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="G69" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2836,13 +2728,13 @@
         <v>149</v>
       </c>
       <c r="E70" t="s">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="F70" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="G70" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2859,13 +2751,13 @@
         <v>150</v>
       </c>
       <c r="E71" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="F71" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G71" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2882,13 +2774,13 @@
         <v>151</v>
       </c>
       <c r="E72" t="s">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="F72" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="G72" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2905,13 +2797,13 @@
         <v>152</v>
       </c>
       <c r="E73" t="s">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="F73" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="G73" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2928,13 +2820,13 @@
         <v>128</v>
       </c>
       <c r="E74" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F74" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G74" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2951,13 +2843,13 @@
         <v>116</v>
       </c>
       <c r="E75" t="s">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="F75" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G75" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2974,13 +2866,13 @@
         <v>123</v>
       </c>
       <c r="E76" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="F76" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="G76" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2997,13 +2889,13 @@
         <v>130</v>
       </c>
       <c r="E77" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="F77" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G77" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3020,13 +2912,13 @@
         <v>153</v>
       </c>
       <c r="E78" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="F78" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="G78" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3043,13 +2935,13 @@
         <v>131</v>
       </c>
       <c r="E79" t="s">
-        <v>233</v>
+        <v>85</v>
       </c>
       <c r="F79" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="G79" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3066,13 +2958,13 @@
         <v>129</v>
       </c>
       <c r="E80" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="F80" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="G80" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3089,13 +2981,13 @@
         <v>154</v>
       </c>
       <c r="E81" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="F81" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="G81" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3112,13 +3004,13 @@
         <v>155</v>
       </c>
       <c r="E82" t="s">
-        <v>236</v>
+        <v>88</v>
       </c>
       <c r="F82" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="G82" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3135,13 +3027,13 @@
         <v>128</v>
       </c>
       <c r="E83" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F83" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G83" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3158,13 +3050,13 @@
         <v>137</v>
       </c>
       <c r="E84" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="F84" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="G84" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3181,13 +3073,13 @@
         <v>156</v>
       </c>
       <c r="E85" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="F85" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="G85" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3204,13 +3096,13 @@
         <v>157</v>
       </c>
       <c r="E86" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="F86" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="G86" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3227,13 +3119,13 @@
         <v>138</v>
       </c>
       <c r="E87" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="F87" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="G87" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3250,13 +3142,13 @@
         <v>128</v>
       </c>
       <c r="E88" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F88" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G88" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3273,13 +3165,13 @@
         <v>128</v>
       </c>
       <c r="E89" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F89" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G89" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3296,13 +3188,13 @@
         <v>158</v>
       </c>
       <c r="E90" t="s">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c r="F90" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="G90" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3319,13 +3211,13 @@
         <v>159</v>
       </c>
       <c r="E91" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="F91" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="G91" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3342,13 +3234,13 @@
         <v>160</v>
       </c>
       <c r="E92" t="s">
-        <v>243</v>
+        <v>98</v>
       </c>
       <c r="F92" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="G92" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3365,13 +3257,13 @@
         <v>128</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G93" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3388,13 +3280,13 @@
         <v>161</v>
       </c>
       <c r="E94" t="s">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c r="F94" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="G94" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3411,13 +3303,13 @@
         <v>128</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F95" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G95" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3434,13 +3326,13 @@
         <v>118</v>
       </c>
       <c r="E96" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="F96" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="G96" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3457,13 +3349,13 @@
         <v>162</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F97" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="G97" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3480,13 +3372,13 @@
         <v>118</v>
       </c>
       <c r="E98" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F98" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="G98" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3503,13 +3395,13 @@
         <v>128</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F99" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G99" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3526,13 +3418,13 @@
         <v>153</v>
       </c>
       <c r="E100" t="s">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="F100" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="G100" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3549,13 +3441,13 @@
         <v>116</v>
       </c>
       <c r="E101" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="F101" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G101" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220418_110024.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220418_110024.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>flo</t>
+    <t>Flo</t>
   </si>
   <si>
     <t>2022-04-18</t>

--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220418_110024.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220418_110024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="251">
   <si>
     <t>사이트</t>
   </si>
@@ -715,7 +715,7 @@
     <t>레시피뮤직</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>NEXTAR</t>
@@ -728,9 +728,6 @@
   </si>
   <si>
     <t>빅히트</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>FEELGHOOD music</t>
@@ -1234,7 +1231,7 @@
         <v>216</v>
       </c>
       <c r="H4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1286,7 +1283,7 @@
         <v>218</v>
       </c>
       <c r="H6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1312,7 +1309,7 @@
         <v>219</v>
       </c>
       <c r="H7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1338,7 +1335,7 @@
         <v>218</v>
       </c>
       <c r="H8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1364,7 +1361,7 @@
         <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1442,7 +1439,7 @@
         <v>222</v>
       </c>
       <c r="H12" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1468,7 +1465,7 @@
         <v>223</v>
       </c>
       <c r="H13" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1494,7 +1491,7 @@
         <v>224</v>
       </c>
       <c r="H14" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1546,7 +1543,7 @@
         <v>225</v>
       </c>
       <c r="H16" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1572,7 +1569,7 @@
         <v>226</v>
       </c>
       <c r="H17" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1598,7 +1595,7 @@
         <v>227</v>
       </c>
       <c r="H18" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1624,7 +1621,7 @@
         <v>226</v>
       </c>
       <c r="H19" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1650,7 +1647,7 @@
         <v>225</v>
       </c>
       <c r="H20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1676,7 +1673,7 @@
         <v>228</v>
       </c>
       <c r="H21" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1702,7 +1699,7 @@
         <v>229</v>
       </c>
       <c r="H22" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1728,7 +1725,7 @@
         <v>230</v>
       </c>
       <c r="H23" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1780,7 +1777,7 @@
         <v>222</v>
       </c>
       <c r="H25" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1832,7 +1829,7 @@
         <v>231</v>
       </c>
       <c r="H27" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1858,7 +1855,7 @@
         <v>220</v>
       </c>
       <c r="H28" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1910,7 +1907,7 @@
         <v>222</v>
       </c>
       <c r="H30" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1936,7 +1933,7 @@
         <v>222</v>
       </c>
       <c r="H31" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1962,7 +1959,7 @@
         <v>232</v>
       </c>
       <c r="H32" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2014,7 +2011,7 @@
         <v>233</v>
       </c>
       <c r="H34" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2040,7 +2037,7 @@
         <v>234</v>
       </c>
       <c r="H35" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2066,7 +2063,7 @@
         <v>227</v>
       </c>
       <c r="H36" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2092,7 +2089,7 @@
         <v>233</v>
       </c>
       <c r="H37" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2118,7 +2115,7 @@
         <v>222</v>
       </c>
       <c r="H38" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2144,7 +2141,7 @@
         <v>235</v>
       </c>
       <c r="H39" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2196,7 +2193,7 @@
         <v>227</v>
       </c>
       <c r="H41" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2274,7 +2271,7 @@
         <v>218</v>
       </c>
       <c r="H44" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2300,7 +2297,7 @@
         <v>216</v>
       </c>
       <c r="H45" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2326,7 +2323,7 @@
         <v>222</v>
       </c>
       <c r="H46" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2404,7 +2401,7 @@
         <v>227</v>
       </c>
       <c r="H49" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2482,7 +2479,7 @@
         <v>222</v>
       </c>
       <c r="H52" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2505,10 +2502,10 @@
         <v>191</v>
       </c>
       <c r="G53" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H53" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2534,7 +2531,7 @@
         <v>227</v>
       </c>
       <c r="H54" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2560,7 +2557,7 @@
         <v>226</v>
       </c>
       <c r="H55" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2586,7 +2583,7 @@
         <v>226</v>
       </c>
       <c r="H56" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2664,7 +2661,7 @@
         <v>227</v>
       </c>
       <c r="H59" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2687,10 +2684,10 @@
         <v>196</v>
       </c>
       <c r="G60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H60" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2713,10 +2710,10 @@
         <v>197</v>
       </c>
       <c r="G61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H61" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2739,10 +2736,10 @@
         <v>198</v>
       </c>
       <c r="G62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H62" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2765,10 +2762,10 @@
         <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H63" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2794,7 +2791,7 @@
         <v>222</v>
       </c>
       <c r="H64" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2820,7 +2817,7 @@
         <v>227</v>
       </c>
       <c r="H65" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2843,10 +2840,10 @@
         <v>200</v>
       </c>
       <c r="G66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H66" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2924,7 +2921,7 @@
         <v>227</v>
       </c>
       <c r="H69" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2950,7 +2947,7 @@
         <v>231</v>
       </c>
       <c r="H70" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2973,10 +2970,10 @@
         <v>203</v>
       </c>
       <c r="G71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H71" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2999,10 +2996,10 @@
         <v>80</v>
       </c>
       <c r="G72" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H72" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3025,10 +3022,10 @@
         <v>81</v>
       </c>
       <c r="G73" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H73" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3106,7 +3103,7 @@
         <v>227</v>
       </c>
       <c r="H76" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3155,10 +3152,10 @@
         <v>206</v>
       </c>
       <c r="G78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H78" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3184,7 +3181,7 @@
         <v>232</v>
       </c>
       <c r="H79" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3210,7 +3207,7 @@
         <v>231</v>
       </c>
       <c r="H80" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3236,7 +3233,7 @@
         <v>233</v>
       </c>
       <c r="H81" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3259,10 +3256,10 @@
         <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H82" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3340,7 +3337,7 @@
         <v>226</v>
       </c>
       <c r="H85" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3366,7 +3363,7 @@
         <v>233</v>
       </c>
       <c r="H86" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3467,10 +3464,10 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H90" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3496,7 +3493,7 @@
         <v>226</v>
       </c>
       <c r="H91" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3519,10 +3516,10 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H92" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3571,10 +3568,10 @@
         <v>102</v>
       </c>
       <c r="G94" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H94" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3626,7 +3623,7 @@
         <v>222</v>
       </c>
       <c r="H96" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3652,7 +3649,7 @@
         <v>233</v>
       </c>
       <c r="H97" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3678,7 +3675,7 @@
         <v>222</v>
       </c>
       <c r="H98" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3727,10 +3724,10 @@
         <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H100" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:8">
